--- a/10/Database.xlsx
+++ b/10/Database.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="108">
   <si>
     <t>Customer name</t>
   </si>
@@ -348,10 +348,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -395,9 +395,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,24 +417,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,24 +433,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -471,31 +449,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,24 +473,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -608,13 +608,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,85 +662,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,7 +704,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,25 +764,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,24 +783,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,6 +844,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -873,192 +908,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1107,9 +1107,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1164,47 +1161,17 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1530,8 +1497,8 @@
   <sheetPr/>
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J10"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1552,412 +1519,412 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:13">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="21">
         <v>100</v>
       </c>
-      <c r="L2" s="49">
+      <c r="L2" s="38">
         <v>44175</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="21" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="21">
         <v>130</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="38">
         <v>43957</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" ht="13" customHeight="1" spans="1:13">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="21">
         <v>185</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="38">
         <v>44075</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="21">
         <v>130</v>
       </c>
-      <c r="L5" s="49">
+      <c r="L5" s="38">
         <v>44177</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:13">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="21">
         <v>100</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="38">
         <v>44221</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="21">
         <v>135</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L7" s="38">
         <v>43923</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:13">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="21">
         <v>135</v>
       </c>
-      <c r="L8" s="49">
+      <c r="L8" s="38">
         <v>44017</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" ht="30" spans="1:13">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="21">
         <v>110</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="38">
         <v>44163</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="21" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:13">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="21">
         <v>250</v>
       </c>
-      <c r="L10" s="49">
+      <c r="L10" s="38">
         <v>44051</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="21" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1970,247 +1937,247 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="35"/>
+      <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="38"/>
+      <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="39">
-        <v>1</v>
-      </c>
-      <c r="D18" s="39">
-        <v>1</v>
-      </c>
-      <c r="E18" s="39">
-        <v>1</v>
-      </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="38"/>
+      <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="10">
         <v>2</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="10">
         <v>2</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="10">
         <v>2</v>
       </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="38"/>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="39">
-        <v>3</v>
-      </c>
-      <c r="D20" s="39">
-        <v>3</v>
-      </c>
-      <c r="E20" s="39">
-        <v>3</v>
-      </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
+      <c r="C20" s="10">
+        <v>3</v>
+      </c>
+      <c r="D20" s="10">
+        <v>3</v>
+      </c>
+      <c r="E20" s="10">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="38"/>
+      <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="10">
         <v>4</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="10">
         <v>4</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="10">
         <v>4</v>
       </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="38"/>
+      <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="10">
         <v>5</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="10">
         <v>5</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="10">
         <v>5</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="38"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="38"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="38"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="38"/>
-      <c r="B26" s="37" t="s">
+      <c r="A26" s="1"/>
+      <c r="B26" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
+      <c r="C26" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="38"/>
-      <c r="B27" s="42">
-        <v>1</v>
-      </c>
-      <c r="C27" s="43" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="36">
+        <v>1</v>
+      </c>
+      <c r="C27" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="38"/>
-      <c r="B28" s="42">
+      <c r="A28" s="1"/>
+      <c r="B28" s="36">
         <f>1+B27</f>
         <v>2</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="38"/>
-      <c r="B29" s="42">
+      <c r="A29" s="1"/>
+      <c r="B29" s="36">
         <f>1+B28</f>
         <v>3</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="42">
+      <c r="B30" s="36">
         <f>1+B29</f>
         <v>4</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="42">
+      <c r="B31" s="36">
         <f>1+B30</f>
         <v>5</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -2218,390 +2185,390 @@
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="45">
-        <v>1</v>
-      </c>
-      <c r="C36" s="43" t="s">
+      <c r="B36" s="10">
+        <v>1</v>
+      </c>
+      <c r="C36" s="36" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="45">
-        <f>1+B36</f>
+      <c r="B37" s="10">
+        <f t="shared" ref="B37:B44" si="0">1+B36</f>
         <v>2</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="36" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="45">
-        <f>1+B37</f>
-        <v>3</v>
-      </c>
-      <c r="C38" s="43" t="s">
+      <c r="B38" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C38" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="45">
-        <f>1+B38</f>
+      <c r="B39" s="10">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="45">
-        <f>1+B39</f>
+      <c r="B40" s="10">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="45">
-        <f>1+B40</f>
+      <c r="B41" s="10">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="36" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="45">
-        <f>1+B41</f>
+      <c r="B42" s="10">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="36" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="45">
-        <f>1+B42</f>
+      <c r="B43" s="10">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="45">
-        <f>1+B43</f>
+      <c r="B44" s="10">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C44" s="43" t="s">
+      <c r="C44" s="36" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="16">
-        <v>1</v>
-      </c>
-      <c r="C49" s="43" t="s">
+      <c r="B49" s="10">
+        <v>1</v>
+      </c>
+      <c r="C49" s="36" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="16">
-        <v>1</v>
-      </c>
-      <c r="C50" s="43" t="s">
+      <c r="B50" s="10">
+        <v>1</v>
+      </c>
+      <c r="C50" s="36" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="16">
-        <v>1</v>
-      </c>
-      <c r="C51" s="43" t="s">
+      <c r="B51" s="10">
+        <v>1</v>
+      </c>
+      <c r="C51" s="36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="16">
+      <c r="B52" s="10">
         <v>2</v>
       </c>
-      <c r="C52" s="43" t="s">
+      <c r="C52" s="36" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="16">
-        <v>3</v>
-      </c>
-      <c r="C53" s="43" t="s">
+      <c r="B53" s="10">
+        <v>3</v>
+      </c>
+      <c r="C53" s="36" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="16">
-        <v>3</v>
-      </c>
-      <c r="C54" s="43" t="s">
+      <c r="B54" s="10">
+        <v>3</v>
+      </c>
+      <c r="C54" s="36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="16">
+      <c r="B55" s="10">
         <v>4</v>
       </c>
-      <c r="C55" s="43" t="s">
+      <c r="C55" s="36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="56" ht="30" spans="2:3">
-      <c r="B56" s="16">
+      <c r="B56" s="10">
         <v>5</v>
       </c>
-      <c r="C56" s="43" t="s">
+      <c r="C56" s="36" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="57" ht="30" spans="2:3">
-      <c r="B57" s="16">
+      <c r="B57" s="10">
         <v>5</v>
       </c>
-      <c r="C57" s="43" t="s">
+      <c r="C57" s="36" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="28" t="s">
+      <c r="B60" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="37" t="s">
+      <c r="C60" s="34" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="16">
-        <v>1</v>
-      </c>
-      <c r="C61" s="43" t="s">
+      <c r="B61" s="10">
+        <v>1</v>
+      </c>
+      <c r="C61" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="16">
+      <c r="B62" s="10">
         <f>1+B61</f>
         <v>2</v>
       </c>
-      <c r="C62" s="43" t="s">
+      <c r="C62" s="36" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="16">
-        <f t="shared" ref="B63:B69" si="0">1+B62</f>
-        <v>3</v>
-      </c>
-      <c r="C63" s="43" t="s">
+      <c r="B63" s="10">
+        <f t="shared" ref="B63:B69" si="1">1+B62</f>
+        <v>3</v>
+      </c>
+      <c r="C63" s="36" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="16">
-        <f t="shared" si="0"/>
+      <c r="B64" s="10">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C64" s="43" t="s">
+      <c r="C64" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="16">
-        <f t="shared" si="0"/>
+      <c r="B65" s="10">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C65" s="43" t="s">
+      <c r="C65" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="16">
-        <f t="shared" si="0"/>
+      <c r="B66" s="10">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C66" s="43" t="s">
+      <c r="C66" s="36" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="16">
-        <f t="shared" si="0"/>
+      <c r="B67" s="10">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C67" s="43" t="s">
+      <c r="C67" s="36" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="16">
-        <f t="shared" si="0"/>
+      <c r="B68" s="10">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C68" s="43" t="s">
+      <c r="C68" s="36" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="16">
-        <f t="shared" si="0"/>
+      <c r="B69" s="10">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C69" s="43" t="s">
+      <c r="C69" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="73" ht="30" spans="3:6">
-      <c r="C73" s="34" t="s">
+      <c r="C73" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="23" t="s">
+      <c r="D73" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="37" t="s">
+      <c r="E73" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F73" s="21" t="s">
+      <c r="F73" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="74" spans="3:6">
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="26" t="s">
+      <c r="D74" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E74" s="27" t="s">
+      <c r="E74" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F74" s="32" t="s">
+      <c r="F74" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="75" spans="3:6">
-      <c r="C75" s="34" t="s">
+      <c r="C75" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="26" t="s">
+      <c r="D75" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E75" s="27" t="s">
+      <c r="E75" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F75" s="32" t="s">
+      <c r="F75" s="31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="76" spans="3:6">
-      <c r="C76" s="34" t="s">
+      <c r="C76" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D76" s="26" t="s">
+      <c r="D76" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E76" s="27" t="s">
+      <c r="E76" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F76" s="32" t="s">
+      <c r="F76" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="77" spans="3:6">
-      <c r="C77" s="34" t="s">
+      <c r="C77" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="26" t="s">
+      <c r="D77" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E77" s="27" t="s">
+      <c r="E77" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F77" s="32" t="s">
+      <c r="F77" s="31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="78" spans="3:6">
-      <c r="C78" s="34" t="s">
+      <c r="C78" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="26" t="s">
+      <c r="D78" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="27" t="s">
+      <c r="E78" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F78" s="32" t="s">
+      <c r="F78" s="31" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="79" spans="3:6">
-      <c r="C79" s="34" t="s">
+      <c r="C79" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D79" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E79" s="27" t="s">
+      <c r="E79" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F79" s="32" t="s">
+      <c r="F79" s="31" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="80" spans="3:6">
-      <c r="C80" s="34" t="s">
+      <c r="C80" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D80" s="26" t="s">
+      <c r="D80" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E80" s="27" t="s">
+      <c r="E80" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F80" s="32" t="s">
+      <c r="F80" s="31" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="81" spans="3:6">
-      <c r="C81" s="34" t="s">
+      <c r="C81" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D81" s="26" t="s">
+      <c r="D81" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E81" s="27" t="s">
+      <c r="E81" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F81" s="32" t="s">
+      <c r="F81" s="31" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="82" spans="3:6">
-      <c r="C82" s="34" t="s">
+      <c r="C82" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D82" s="26" t="s">
+      <c r="D82" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E82" s="27" t="s">
+      <c r="E82" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F82" s="32" t="s">
+      <c r="F82" s="31" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2640,19 +2607,19 @@
   </cols>
   <sheetData>
     <row r="4" ht="30" spans="2:18">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="31" t="s">
+      <c r="E4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>79</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -2670,36 +2637,36 @@
       <c r="L4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:18">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="32">
         <v>1</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -2711,42 +2678,42 @@
       <c r="J5" s="5">
         <v>100</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="17">
         <v>44175</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="33">
-        <v>1</v>
-      </c>
-      <c r="O5" s="34" t="s">
+      <c r="N5" s="32">
+        <v>1</v>
+      </c>
+      <c r="O5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="26" t="s">
+      <c r="P5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="Q5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="R5" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="32">
         <v>1</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -2758,42 +2725,42 @@
       <c r="J6" s="5">
         <v>130</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="17">
         <v>43957</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="33">
-        <v>1</v>
-      </c>
-      <c r="O6" s="34" t="s">
+      <c r="N6" s="32">
+        <v>1</v>
+      </c>
+      <c r="O6" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="26" t="s">
+      <c r="P6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="27" t="s">
+      <c r="Q6" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="32" t="s">
+      <c r="R6" s="31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="32">
         <v>1</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -2805,42 +2772,42 @@
       <c r="J7" s="5">
         <v>185</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="17">
         <v>44075</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="33">
-        <v>1</v>
-      </c>
-      <c r="O7" s="34" t="s">
+      <c r="N7" s="32">
+        <v>1</v>
+      </c>
+      <c r="O7" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="26" t="s">
+      <c r="P7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="27" t="s">
+      <c r="Q7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="32" t="s">
+      <c r="R7" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" ht="30" spans="2:18">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="32">
         <v>2</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -2852,42 +2819,42 @@
       <c r="J8" s="5">
         <v>130</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="17">
         <v>44177</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="33">
+      <c r="N8" s="32">
         <v>2</v>
       </c>
-      <c r="O8" s="34" t="s">
+      <c r="O8" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="P8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="Q8" s="27" t="s">
+      <c r="Q8" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="32" t="s">
+      <c r="R8" s="31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="32">
         <v>3</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -2899,42 +2866,42 @@
       <c r="J9" s="5">
         <v>100</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="17">
         <v>44221</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N9" s="33">
-        <v>3</v>
-      </c>
-      <c r="O9" s="34" t="s">
+      <c r="N9" s="32">
+        <v>3</v>
+      </c>
+      <c r="O9" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="26" t="s">
+      <c r="P9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="27" t="s">
+      <c r="Q9" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="R9" s="32" t="s">
+      <c r="R9" s="31" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="32">
         <v>3</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -2946,42 +2913,42 @@
       <c r="J10" s="5">
         <v>135</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="17">
         <v>43923</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="33">
-        <v>3</v>
-      </c>
-      <c r="O10" s="34" t="s">
+      <c r="N10" s="32">
+        <v>3</v>
+      </c>
+      <c r="O10" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="26" t="s">
+      <c r="P10" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="Q10" s="27" t="s">
+      <c r="Q10" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="R10" s="32" t="s">
+      <c r="R10" s="31" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="32">
         <v>4</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -2993,42 +2960,42 @@
       <c r="J11" s="5">
         <v>135</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="17">
         <v>44017</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="33">
+      <c r="N11" s="32">
         <v>4</v>
       </c>
-      <c r="O11" s="34" t="s">
+      <c r="O11" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="P11" s="26" t="s">
+      <c r="P11" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="Q11" s="27" t="s">
+      <c r="Q11" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="R11" s="32" t="s">
+      <c r="R11" s="31" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" ht="30" spans="2:18">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="32">
         <v>5</v>
       </c>
       <c r="H12" s="5" t="s">
@@ -3040,42 +3007,42 @@
       <c r="J12" s="5">
         <v>110</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="17">
         <v>44163</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="N12" s="33">
+      <c r="N12" s="32">
         <v>5</v>
       </c>
-      <c r="O12" s="34" t="s">
+      <c r="O12" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="P12" s="26" t="s">
+      <c r="P12" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="27" t="s">
+      <c r="Q12" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="R12" s="32" t="s">
+      <c r="R12" s="31" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" ht="45" spans="2:18">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="32">
         <v>5</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -3087,25 +3054,25 @@
       <c r="J13" s="5">
         <v>250</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="17">
         <v>44051</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="32">
         <v>5</v>
       </c>
-      <c r="O13" s="34" t="s">
+      <c r="O13" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="26" t="s">
+      <c r="P13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="Q13" s="27" t="s">
+      <c r="Q13" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="R13" s="32" t="s">
+      <c r="R13" s="31" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3118,51 +3085,51 @@
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="2:12">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="24" t="s">
+      <c r="D19" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="28" t="s">
+      <c r="F19" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="J19" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="24" t="s">
+      <c r="K19" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" ht="30" spans="2:12">
+    <row r="20" spans="2:12">
       <c r="B20" s="4">
         <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="28" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="13">
@@ -3171,13 +3138,13 @@
       <c r="I20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="29" t="s">
+      <c r="J20" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="29" t="s">
+      <c r="L20" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3188,13 +3155,13 @@
       <c r="C21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="28" t="s">
         <v>46</v>
       </c>
       <c r="H21" s="13">
@@ -3203,30 +3170,30 @@
       <c r="I21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="29" t="s">
+      <c r="J21" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="29" t="s">
+      <c r="K21" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="L21" s="29" t="s">
+      <c r="L21" s="28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" ht="30" spans="2:12">
+    <row r="22" spans="2:12">
       <c r="B22" s="4">
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="28" t="s">
         <v>58</v>
       </c>
       <c r="H22" s="13">
@@ -3235,13 +3202,13 @@
       <c r="I22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="J22" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="K22" s="29" t="s">
+      <c r="K22" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="L22" s="29" t="s">
+      <c r="L22" s="28" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3252,13 +3219,13 @@
       <c r="C23" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="28" t="s">
         <v>64</v>
       </c>
       <c r="H23" s="13">
@@ -3267,18 +3234,18 @@
       <c r="I23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="29" t="s">
+      <c r="J23" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="29" t="s">
+      <c r="K23" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="29" t="s">
+      <c r="L23" s="28" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="27" t="s">
         <v>79</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -3296,10 +3263,10 @@
       <c r="G26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="I26" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="J26" s="28" t="s">
+      <c r="J26" s="27" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3316,7 +3283,7 @@
       <c r="E27" s="5">
         <v>100</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="17">
         <v>44175</v>
       </c>
       <c r="G27" s="5" t="s">
@@ -3342,7 +3309,7 @@
       <c r="E28" s="5">
         <v>130</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="17">
         <v>43957</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -3368,7 +3335,7 @@
       <c r="E29" s="5">
         <v>185</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="17">
         <v>44075</v>
       </c>
       <c r="G29" s="5" t="s">
@@ -3394,7 +3361,7 @@
       <c r="E30" s="5">
         <v>130</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="17">
         <v>44177</v>
       </c>
       <c r="G30" s="5" t="s">
@@ -3420,7 +3387,7 @@
       <c r="E31" s="5">
         <v>100</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="17">
         <v>44221</v>
       </c>
       <c r="G31" s="5" t="s">
@@ -3446,7 +3413,7 @@
       <c r="E32" s="5">
         <v>135</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="17">
         <v>43923</v>
       </c>
       <c r="G32" s="5" t="s">
@@ -3472,7 +3439,7 @@
       <c r="E33" s="5">
         <v>135</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="17">
         <v>44017</v>
       </c>
       <c r="G33" s="5" t="s">
@@ -3498,7 +3465,7 @@
       <c r="E34" s="5">
         <v>110</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="17">
         <v>44163</v>
       </c>
       <c r="G34" s="5" t="s">
@@ -3524,7 +3491,7 @@
       <c r="E35" s="5">
         <v>250</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="17">
         <v>44051</v>
       </c>
       <c r="G35" s="5" t="s">
@@ -3546,34 +3513,34 @@
       </c>
     </row>
     <row r="44" ht="30" spans="2:12">
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F44" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="28" t="s">
+      <c r="F44" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="I44" s="34" t="s">
+      <c r="I44" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J44" s="23" t="s">
+      <c r="J44" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="K44" s="24" t="s">
+      <c r="K44" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L44" s="21" t="s">
+      <c r="L44" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3587,7 +3554,7 @@
       <c r="D45" s="5">
         <v>1</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F45" s="5">
@@ -3602,7 +3569,7 @@
       <c r="J45" s="5">
         <v>5</v>
       </c>
-      <c r="K45" s="29" t="s">
+      <c r="K45" s="28" t="s">
         <v>21</v>
       </c>
       <c r="L45" s="5">
@@ -3619,7 +3586,7 @@
       <c r="D46" s="5">
         <v>2</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="E46" s="28" t="s">
         <v>45</v>
       </c>
       <c r="F46" s="5">
@@ -3634,7 +3601,7 @@
       <c r="J46" s="5">
         <v>2</v>
       </c>
-      <c r="K46" s="29" t="s">
+      <c r="K46" s="28" t="s">
         <v>29</v>
       </c>
       <c r="L46" s="5">
@@ -3651,7 +3618,7 @@
       <c r="D47" s="5">
         <v>3</v>
       </c>
-      <c r="E47" s="29" t="s">
+      <c r="E47" s="28" t="s">
         <v>57</v>
       </c>
       <c r="F47" s="5">
@@ -3666,7 +3633,7 @@
       <c r="J47" s="5">
         <v>5</v>
       </c>
-      <c r="K47" s="29" t="s">
+      <c r="K47" s="28" t="s">
         <v>54</v>
       </c>
       <c r="L47" s="5">
@@ -3683,7 +3650,7 @@
       <c r="D48" s="5">
         <v>4</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="28" t="s">
         <v>63</v>
       </c>
       <c r="F48" s="5">
@@ -3698,7 +3665,7 @@
       <c r="J48" s="5">
         <v>3</v>
       </c>
-      <c r="K48" s="29" t="s">
+      <c r="K48" s="28" t="s">
         <v>69</v>
       </c>
       <c r="L48" s="5" t="s">
@@ -3706,18 +3673,18 @@
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="30"/>
+      <c r="B49" s="29"/>
       <c r="C49" s="6"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="30"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="6"/>
     </row>
     <row r="53" spans="4:5">
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="27" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3762,15 +3729,15 @@
       </c>
     </row>
     <row r="60" spans="4:5">
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="E60" s="28" t="s">
+      <c r="E60" s="27" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="61" spans="4:5">
-      <c r="D61" s="16">
+      <c r="D61" s="10">
         <v>1</v>
       </c>
       <c r="E61" s="5" t="s">
@@ -3778,8 +3745,8 @@
       </c>
     </row>
     <row r="62" spans="4:5">
-      <c r="D62" s="16">
-        <f>1+D61</f>
+      <c r="D62" s="10">
+        <f t="shared" ref="D62:D67" si="0">1+D61</f>
         <v>2</v>
       </c>
       <c r="E62" s="5" t="s">
@@ -3787,8 +3754,8 @@
       </c>
     </row>
     <row r="63" spans="4:5">
-      <c r="D63" s="16">
-        <f>1+D62</f>
+      <c r="D63" s="10">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E63" s="5" t="s">
@@ -3796,8 +3763,8 @@
       </c>
     </row>
     <row r="64" spans="4:5">
-      <c r="D64" s="16">
-        <f>1+D63</f>
+      <c r="D64" s="10">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E64" s="5" t="s">
@@ -3805,8 +3772,8 @@
       </c>
     </row>
     <row r="65" spans="4:5">
-      <c r="D65" s="16">
-        <f>1+D64</f>
+      <c r="D65" s="10">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E65" s="5" t="s">
@@ -3814,8 +3781,8 @@
       </c>
     </row>
     <row r="66" spans="4:5">
-      <c r="D66" s="16">
-        <f>1+D65</f>
+      <c r="D66" s="10">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E66" s="5" t="s">
@@ -3823,8 +3790,8 @@
       </c>
     </row>
     <row r="67" spans="4:5">
-      <c r="D67" s="16">
-        <f>1+D66</f>
+      <c r="D67" s="10">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E67" s="5" t="s">
@@ -3842,8 +3809,8 @@
   <sheetPr/>
   <dimension ref="B2:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3890,22 +3857,22 @@
       <c r="I2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="20" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4141,7 +4108,7 @@
         <v>80</v>
       </c>
       <c r="J10" s="7"/>
-      <c r="K10" s="16">
+      <c r="K10" s="10">
         <v>1</v>
       </c>
       <c r="L10" s="5" t="s">
@@ -4164,7 +4131,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="7"/>
-      <c r="K11" s="16">
+      <c r="K11" s="10">
         <f>1+K10</f>
         <v>2</v>
       </c>
@@ -4188,7 +4155,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="7"/>
-      <c r="K12" s="16">
+      <c r="K12" s="10">
         <f>1+K11</f>
         <v>3</v>
       </c>
@@ -4212,7 +4179,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="7"/>
-      <c r="K13" s="16">
+      <c r="K13" s="10">
         <f>1+K12</f>
         <v>4</v>
       </c>
@@ -4236,7 +4203,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="7"/>
-      <c r="K14" s="16">
+      <c r="K14" s="10">
         <f>1+K13</f>
         <v>5</v>
       </c>
@@ -4260,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="7"/>
-      <c r="K15" s="16">
+      <c r="K15" s="10">
         <f>1+K14</f>
         <v>6</v>
       </c>
@@ -4437,7 +4404,7 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" ht="30" spans="3:15">
+    <row r="25" spans="3:15">
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -4516,7 +4483,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="16">
+      <c r="H29" s="10">
         <v>1</v>
       </c>
       <c r="I29" s="5" t="s">
@@ -4535,7 +4502,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="16">
+      <c r="H30" s="10">
         <f t="shared" ref="H30:H35" si="0">1+H29</f>
         <v>2</v>
       </c>
@@ -4555,7 +4522,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="16">
+      <c r="H31" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4575,7 +4542,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="16">
+      <c r="H32" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -4595,7 +4562,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="16">
+      <c r="H33" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4615,7 +4582,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="16">
+      <c r="H34" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -4635,7 +4602,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="16">
+      <c r="H35" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -4647,24 +4614,27 @@
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
     </row>
-    <row r="42" spans="3:7">
+    <row r="42" ht="30" spans="3:8">
       <c r="C42" s="8" t="s">
         <v>79</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G42" s="16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="3:7">
+      <c r="H42" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8">
       <c r="C43" s="10">
         <v>1</v>
       </c>
@@ -4674,14 +4644,17 @@
       <c r="E43" s="5">
         <v>100</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="17">
         <v>44175</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="44" spans="3:7">
+      <c r="H43" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8">
       <c r="C44" s="10">
         <v>1</v>
       </c>
@@ -4691,14 +4664,17 @@
       <c r="E44" s="5">
         <v>130</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="17">
         <v>43957</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="45" spans="3:7">
+      <c r="H44" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8">
       <c r="C45" s="10">
         <v>1</v>
       </c>
@@ -4708,14 +4684,17 @@
       <c r="E45" s="5">
         <v>185</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="17">
         <v>44075</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="46" spans="3:7">
+      <c r="H45" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8">
       <c r="C46" s="10">
         <v>2</v>
       </c>
@@ -4725,14 +4704,17 @@
       <c r="E46" s="5">
         <v>130</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="17">
         <v>44177</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="3:7">
+      <c r="H46" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8">
       <c r="C47" s="10">
         <v>3</v>
       </c>
@@ -4742,14 +4724,17 @@
       <c r="E47" s="5">
         <v>100</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="17">
         <v>44221</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="48" spans="3:7">
+      <c r="H47" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8">
       <c r="C48" s="10">
         <v>3</v>
       </c>
@@ -4759,14 +4744,17 @@
       <c r="E48" s="5">
         <v>135</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="17">
         <v>43923</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="49" spans="3:7">
+      <c r="H48" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8">
       <c r="C49" s="10">
         <v>4</v>
       </c>
@@ -4776,14 +4764,17 @@
       <c r="E49" s="5">
         <v>135</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="17">
         <v>44017</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="50" spans="3:7">
+      <c r="H49" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8">
       <c r="C50" s="10">
         <v>5</v>
       </c>
@@ -4793,14 +4784,17 @@
       <c r="E50" s="5">
         <v>110</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="17">
         <v>44163</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="51" spans="3:7">
+      <c r="H50" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8">
       <c r="C51" s="10">
         <v>5</v>
       </c>
@@ -4810,11 +4804,14 @@
       <c r="E51" s="5">
         <v>250</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="17">
         <v>44051</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>34</v>
+      </c>
+      <c r="H51" s="13">
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="3:5">
@@ -4841,7 +4838,7 @@
     </row>
     <row r="57" spans="3:5">
       <c r="C57" s="13">
-        <f>1+C56</f>
+        <f t="shared" ref="C57:C62" si="1">1+C56</f>
         <v>2</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -4853,7 +4850,7 @@
     </row>
     <row r="58" spans="3:5">
       <c r="C58" s="13">
-        <f>1+C57</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -4865,7 +4862,7 @@
     </row>
     <row r="59" ht="30" spans="3:5">
       <c r="C59" s="13">
-        <f>1+C58</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -4877,7 +4874,7 @@
     </row>
     <row r="60" spans="3:5">
       <c r="C60" s="13">
-        <f>1+C59</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -4889,7 +4886,7 @@
     </row>
     <row r="61" ht="30" spans="3:5">
       <c r="C61" s="13">
-        <f>1+C60</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -4901,7 +4898,7 @@
     </row>
     <row r="62" ht="45" spans="3:5">
       <c r="C62" s="13">
-        <f>1+C61</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D62" s="5" t="s">
